--- a/fortunella/ro/Fortunella ro .xlsx
+++ b/fortunella/ro/Fortunella ro .xlsx
@@ -169,7 +169,18 @@
     <t>Vei putea purta hainele care îți plac și nu cele care ascund mai bine defectele figurii tale</t>
   </si>
   <si>
-    <t>Viața ta se va schimba complet, va deveni interesant și îndestulat</t>
+    <r>
+      <t xml:space="preserve">Viața ta se va schimba complet, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>vei</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> deveni interesant și îndestulat</t>
+    </r>
   </si>
   <si>
     <t>Cum acționează picăturile Fortunella asupra organismului?</t>
@@ -265,7 +276,18 @@
     <t>urmați instrucțiunile</t>
   </si>
   <si>
-    <t>de administrarea,</t>
+    <r>
+      <t xml:space="preserve">de </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>administrare</t>
+    </r>
+    <r>
+      <t>,</t>
+    </r>
   </si>
   <si>
     <t>și să nu saltați</t>
@@ -364,458 +386,455 @@
     <t>Introduceți nr. de telefon</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html lang="en"&gt;&lt;head&gt;
-	&lt;meta charset="utf-8"&gt;
-	&lt;title&gt;&lt;span data-translate="1"&gt;Fortunella&lt;/span&gt;&lt;/title&gt;
-	&lt;meta property="og:image" content="path/to/image.jpg"&gt;
-	&lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
-	&lt;link rel="icon" href="img/favicon/favicon.ico"&gt;
-	&lt;link rel="apple-touch-icon" sizes="180x180" href="img/favicon/apple-touch-icon-180x180.png"&gt;
-	&lt;meta name="theme-color" content="#000"&gt;
-	&lt;link rel="stylesheet" href="libs/carousel/owl.carousel.min.css"&gt;
-	&lt;link rel="stylesheet" href="styles/css/main.css"&gt;
-	&lt;!-- &lt;link href="https://fonts.googleapis.com/css?family=Roboto:300,400,700,900&amp;display=swap" rel="stylesheet" /&gt;
-	&lt;link
-		href="https://fonts.googleapis.com/css?family=Montserrat:300,400,500,600,700,800&amp;display=swap&amp;subset=cyrillic-ext"
-		rel="stylesheet" /&gt; --&gt;
-	&lt;link href="https://fonts.googleapis.com/css2?family=Noto+Sans:wght@400;700&amp;display=swap" rel="stylesheet"&gt;
-	&lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/3.4.1/jquery.min.js"&gt;&lt;/script&gt;
-&lt;/head&gt;
-&lt;body&gt;
-	&lt;header class="intro"&gt;
-		&lt;div class="intro__top"&gt;
-			&lt;div class="intro__triger"&gt;&lt;b&gt;&lt;span data-translate="2"&gt;100%&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="3"&gt;ЭФФЕКТ&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
-			&lt;h2 class="intro__title big black"&gt;&lt;span data-translate="4"&gt;Капли &lt;/span&gt;&lt;br&gt;&lt;span data-translate="5"&gt;Fortunella&lt;/span&gt;&lt;/h2&gt;
-			&lt;p class="intro__subtitle"&gt;&lt;span data-translate="6"&gt;для быстрого
-				и эффективного похудения&lt;/span&gt;&lt;/p&gt;
-			&lt;p class="intro__triger2"&gt;&lt;span data-translate="7"&gt;ДО 5 КИЛОГРАММ В НЕДЕЛЮ&lt;/span&gt;&lt;/p&gt;
-			&lt;div class="intro__descont"&gt;&lt;img src="img/intro_img.png" alt&gt;
-				&lt;p&gt;&lt;span data-translate="8"&gt;СКИДКА
-					&lt;/span&gt;&lt;b&gt;&lt;span data-translate="9"&gt;50%&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-			&lt;/div&gt;
-		&lt;/div&gt;
-		&lt;div class="intro__grid"&gt;
-			&lt;div class="intro__item"&gt;
-				&lt;img src="img/intro_li_1.svg" alt&gt;
-				&lt;p&gt;&lt;span data-translate="10"&gt;Контролирует аппетит&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="intro__item"&gt;
-				&lt;img src="img/intro_li_2.svg" alt&gt;
-				&lt;p&gt;&lt;span data-translate="11"&gt;Ускоряют метаболизм&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="intro__item"&gt;
-				&lt;img src="img/intro_li_3.svg" alt&gt;
-				&lt;p&gt;&lt;span data-translate="12"&gt;Расщепляют жировые отложения&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="intro__item"&gt;
-				&lt;img src="img/intro_li_4.svg" alt&gt;
-				&lt;p&gt;&lt;span data-translate="13"&gt;Тонизируют и заряжают энергией&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-		&lt;/div&gt;
-		&lt;div class="pricle"&gt;
-			&lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="14"&gt;Старая цена&lt;/span&gt;&lt;/span&gt;&lt;s&gt;&lt;span data-translate="15"&gt;€ 78&lt;/span&gt;&lt;/s&gt; &lt;/div&gt;
-			&lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="16"&gt;Новая цена&lt;/span&gt;&lt;/span&gt;&lt;b&gt;&lt;span data-translate="17"&gt;€ 39&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
-		&lt;/div&gt;
-		&lt;div class="chin timer "&gt;
-			&lt;div class="timer__title"&gt;&lt;span data-translate="18"&gt;До конца акции осталось:&lt;/span&gt;&lt;/div&gt;
-			&lt;div class="timer__wrapper"&gt;
-				&lt;div class="t-hour"&gt;&lt;/div&gt;&lt;span data-translate="19"&gt;: &lt;/span&gt;&lt;div class="t-min"&gt;&lt;/div&gt;&lt;span data-translate="20"&gt;: &lt;/span&gt;&lt;div class="t-sec"&gt;&lt;/div&gt;
-			&lt;/div&gt;
-			&lt;div class="timer__desc"&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">				&lt;span&gt;&lt;span data-translate="21"&gt;Часов&lt;/span&gt;&lt;/span&gt;
-				&lt;span&gt;&lt;span data-translate="22"&gt;Минут&lt;/span&gt;&lt;/span&gt;
-				&lt;span&gt;&lt;span data-translate="23"&gt;Секунд&lt;/span&gt;&lt;/span&gt;
-			&lt;/div&gt;
-		&lt;/div&gt;
-		&lt;br&gt;
-		&lt;a href="#offer" class="btn"&gt;&lt;span data-translate="24"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/a&gt;
-		&lt;p class="intro__sale"&gt;
-			&lt;span&gt;&lt;span data-translate="25"&gt;По акции
-				осталось&lt;/span&gt;&lt;/span&gt;
-			&lt;span class="num"&gt;&lt;span data-translate="26"&gt;10 шт&lt;/span&gt;&lt;/span&gt;
-		&lt;/p&gt;
-		&lt;a href="#offer"&gt;&lt;img class="intro__btn" src="img/btn.png" alt&gt;&lt;/a&gt;
-	&lt;/header&gt;
-	&lt;section class="sect1"&gt;
-		&lt;div class="content"&gt;
-			&lt;h2 class="black"&gt;&lt;span data-translate="27"&gt;Польза фрукта фортунеллы&lt;/span&gt;&lt;/h2&gt;
-			&lt;img src="img/sect1_top.png" alt class="sect1__top"&gt;
-			&lt;p&gt;&lt;span data-translate="28"&gt;Плод произрастает в Южной Азии, среди богатейшей флоры на планете, где давно славится своими свойствами, потому
-				уже
-				десятилетиями популярен в мире. Этот фрукт способствует &lt;/span&gt;&lt;b&gt;&lt;span data-translate="29"&gt;расщеплению жировых отложений и преобразованию в
-					энергию.&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-			&lt;br&gt; &lt;br&gt;
-			&lt;div class="sect1__item "&gt;
-				&lt;img src="img/sect1_1.png" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="30"&gt;Уничтожает жировые клетки&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="31"&gt;Расщепляет жировые отложения, преобразовывая их в энергию.
-					&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect1__item "&gt;
-				&lt;img src="img/sect1_2.png" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="32"&gt;Усиливает иммунитет&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="33"&gt;Восстанавливает жизненные силы и стимулирует физическую активность, повышая
-						выносливость.
-					&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect1__item "&gt;
-				&lt;img src="img/sect1_3.png" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="34"&gt;Очищает организм&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="35"&gt;Восстанавливает природный баланс в организме.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;p&gt;&lt;span data-translate="36"&gt;Плоды фортунеллы, основной ингредиент капель для похудения Fortunella, но не единственный. Каждый из
-				компонентов
-				входящий в состав средства – &lt;/span&gt;&lt;b&gt;&lt;span data-translate="37"&gt;полезное средство для похудения.&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="38"&gt;Все они по отдельности содержатся во
-				множестве подобных
-				средств. Но именно в каплях Fortunella они объединены для достижения максимальной эффективности.&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-	&lt;/section&gt;
-	&lt;section class="sect2"&gt;
-		&lt;img src="img/img__1.png" alt class="sect2__top"&gt;
-		&lt;div class="content"&gt;
-			&lt;h2 class="black"&gt;&lt;span data-translate="39"&gt;Сбалансированная формула стройности и красоты&lt;/span&gt;&lt;/h2&gt;
-			&lt;br&gt;
-			&lt;br&gt;
-			&lt;div class="sect2__item chin"&gt;
-				&lt;p class="sect2__triger"&gt;&lt;span data-translate="40"&gt;Экстракт зеленого кофе&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__text"&gt;&lt;span data-translate="41"&gt;Содержит хлорогеновую кислоту, которая блокирует высвобождение глюкозы из гликогена,
-					заставляя организм расходовать в
-					первую очередь жиры. Будучи природным пребиотиком, благотворно влияет на микрофлору кишечника. Снижает уровень
-					«плохого»
-					холест</t>
+    <t>&lt;!DOCTYPE html&gt;&lt;html lang="en"&gt;&lt;head&gt;
+  &lt;meta charset="utf-8"&gt;
+  &lt;title&gt;&lt;span data-translate="1"&gt;Fortunella&lt;/span&gt;&lt;/title&gt;
+  &lt;meta property="og:image" content="path/to/image.jpg"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
+  &lt;link rel="icon" href="img/favicon/favicon.ico"&gt;
+  &lt;link rel="apple-touch-icon" sizes="180x180" href="img/favicon/apple-touch-icon-180x180.png"&gt;
+  &lt;meta name="theme-color" content="#000"&gt;
+  &lt;link rel="stylesheet" href="libs/carousel/owl.carousel.min.css"&gt;
+  &lt;link rel="stylesheet" href="styles/css/main.css"&gt;
+  &lt;!-- &lt;link href="https://fonts.googleapis.com/css?family=Roboto:300,400,700,900&amp;display=swap" rel="stylesheet" /&gt;
+  &lt;link
+   href="https://fonts.googleapis.com/css?family=Montserrat:300,400,500,600,700,800&amp;display=swap&amp;subset=cyrillic-ext"
+   rel="stylesheet" /&gt; --&gt;
+  &lt;link href="https://fonts.googleapis.com/css2?family=Noto+Sans:wght@400;700&amp;display=swap" rel="stylesheet"&gt;
+  &lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/3.4.1/jquery.min.js"&gt;&lt;/script&gt;
+ &lt;/head&gt;
+ &lt;body&gt;
+  &lt;header class="intro"&gt;
+   &lt;div class="intro__top"&gt;
+    &lt;div class="intro__triger"&gt;&lt;b&gt;&lt;span data-translate="2"&gt;100%&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="3"&gt;ЭФФЕКТ&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
+    &lt;h2 class="intro__title big black"&gt;&lt;span data-translate="4"&gt;Капли &lt;/span&gt;&lt;br&gt;&lt;span data-translate="5"&gt;Fortunella&lt;/span&gt;&lt;/h2&gt;
+    &lt;p class="intro__subtitle"&gt;&lt;span data-translate="6"&gt;для быстрого
+     и эффективного похудения&lt;/span&gt;&lt;/p&gt;
+    &lt;p class="intro__triger2"&gt;&lt;span data-translate="7"&gt;ДО 5 КИЛОГРАММ В НЕДЕЛЮ&lt;/span&gt;&lt;/p&gt;
+    &lt;div class="intro__descont"&gt;&lt;img src="img/intro_img.png" alt&gt;
+     &lt;p&gt;&lt;span data-translate="8"&gt;СКИДКА
+      &lt;/span&gt;&lt;b&gt;&lt;span data-translate="9"&gt;50%&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+   &lt;div class="intro__grid"&gt;
+    &lt;div class="intro__item"&gt;
+     &lt;img src="img/intro_li_1.svg" alt&gt;
+     &lt;p&gt;&lt;span data-translate="10"&gt;Контролирует аппетит&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="intro__item"&gt;
+     &lt;img src="img/intro_li_2.svg" alt&gt;
+     &lt;p&gt;&lt;span data-translate="11"&gt;Ускоряют метаболизм&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="intro__item"&gt;
+     &lt;img src="img/intro_li_3.svg" alt&gt;
+     &lt;p&gt;&lt;span data-translate="12"&gt;Расщепляют жировые отложения&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="intro__item"&gt;
+     &lt;img src="img/intro_li_4.svg" alt&gt;
+     &lt;p&gt;&lt;span data-translate="13"&gt;Тонизируют и заряжают энергией&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+   &lt;div class="pricle"&gt;
+    &lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="14"&gt;Старая цена&lt;/span&gt;&lt;/span&gt;&lt;s&gt;&lt;span data-translate="15"&gt;€ 78&lt;/span&gt;&lt;/s&gt; &lt;/div&gt;
+    &lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="16"&gt;Новая цена&lt;/span&gt;&lt;/span&gt;&lt;b&gt;&lt;span data-translate="17"&gt;€ 39&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
+   &lt;/div&gt;
+   &lt;div class="chin timer "&gt;
+    &lt;div class="timer__title"&gt;&lt;span data-translate="18"&gt;До конца акции осталось:&lt;/span&gt;&lt;/div&gt;
+    &lt;div class="timer__wrapper"&gt;
+     &lt;div class="t-hour"&gt;&lt;/div&gt;&lt;span data-translate="19"&gt;: &lt;/span&gt;&lt;div class="t-min"&gt;&lt;/div&gt;&lt;span data-translate="20"&gt;: &lt;/span&gt;&lt;div class="t-sec"&gt;&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="timer__desc"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&lt;span data-translate="21"&gt;Часов&lt;/span&gt;&lt;/span&gt;
+     &lt;span&gt;&lt;span data-translate="22"&gt;Минут&lt;/span&gt;&lt;/span&gt;
+     &lt;span&gt;&lt;span data-translate="23"&gt;Секунд&lt;/span&gt;&lt;/span&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+   &lt;br&gt;
+   &lt;a href="#offer" class="btn"&gt;&lt;span data-translate="24"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/a&gt;
+   &lt;p class="intro__sale"&gt;
+    &lt;span&gt;&lt;span data-translate="25"&gt;По акции
+     осталось&lt;/span&gt;&lt;/span&gt;
+    &lt;span class="num"&gt;&lt;span data-translate="26"&gt;10 шт&lt;/span&gt;&lt;/span&gt;
+   &lt;/p&gt;
+   &lt;a href="#offer"&gt;&lt;img class="intro__btn" src="img/btn.png" alt&gt;&lt;/a&gt;
+  &lt;/header&gt;
+  &lt;section class="sect1"&gt;
+   &lt;div class="content"&gt;
+    &lt;h2 class="black"&gt;&lt;span data-translate="27"&gt;Польза фрукта фортунеллы&lt;/span&gt;&lt;/h2&gt;
+    &lt;img src="img/sect1_top.png" alt class="sect1__top"&gt;
+    &lt;p&gt;&lt;span data-translate="28"&gt;Плод произрастает в Южной Азии, среди богатейшей флоры на планете, где давно славится своими свойствами, потому
+     уже
+     десятилетиями популярен в мире. Этот фрукт способствует &lt;/span&gt;&lt;b&gt;&lt;span data-translate="29"&gt;расщеплению жировых отложений и преобразованию в
+      энергию.&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+    &lt;br&gt; &lt;br&gt;
+    &lt;div class="sect1__item "&gt;
+     &lt;img src="img/sect1_1.png" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="30"&gt;Уничтожает жировые клетки&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="31"&gt;Расщепляет жировые отложения, преобразовывая их в энергию.
+      &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect1__item "&gt;
+     &lt;img src="img/sect1_2.png" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="32"&gt;Усиливает иммунитет&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="33"&gt;Восстанавливает жизненные силы и стимулирует физическую активность, повышая
+       выносливость.
+      &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect1__item "&gt;
+     &lt;img src="img/sect1_3.png" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="34"&gt;Очищает организм&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="35"&gt;Восстанавливает природный баланс в организме.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;p&gt;&lt;span data-translate="36"&gt;Плоды фортунеллы, основной ингредиент капель для похудения Fortunella, но не единственный. Каждый из
+     компонентов
+     входящий в состав средства – &lt;/span&gt;&lt;b&gt;&lt;span data-translate="37"&gt;полезное средство для похудения.&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="38"&gt;Все они по отдельности содержатся во
+     множестве подобных
+     средств. Но именно в каплях Fortunella они объединены для достижения максимальной эффективности.&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/section&gt;
+  &lt;section class="sect2"&gt;
+   &lt;img src="img/img__1.png" alt class="sect2__top"&gt;
+   &lt;div class="content"&gt;
+    &lt;h2 class="black"&gt;&lt;span data-translate="39"&gt;Сбалансированная формула стройности и красоты&lt;/span&gt;&lt;/h2&gt;
+    &lt;br&gt;
+    &lt;br&gt;
+    &lt;div class="sect2__item chin"&gt;
+     &lt;p class="sect2__triger"&gt;&lt;span data-translate="40"&gt;Экстракт зеленого кофе&lt;/span&gt;&lt;/p&gt;
+     &lt;p class="sect2__text"&gt;&lt;span data-translate="41"&gt;Содержит хлорогеновую кислоту, которая блокирует высвобождение глюкозы из гликогена,
+      заставляя организм расходовать в
+      первую очередь жиры. Будучи природным пребиотиком, благотворно влияет на микрофлору кишечника. Снижает уровень
+      «плохого»
+      холест</t>
   </si>
   <si>
     <t>ерина.&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect2_1.png" alt&gt;
-			&lt;/div&gt;
-			&lt;div class="sect2__item chin"&gt;
-				&lt;p class="sect2__triger"&gt;&lt;span data-translate="42"&gt;Экстракт гуараны&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__text"&gt;&lt;span data-translate="43"&gt;Активирует обмен веществ, значительно усиливая скорость расщепления жиров в организме.
-					Положительно воздействует на
-					состояние кожных покровов, выводит из них шлаки и токсины. Приводит в норму гормональный фон, поддерживает
-					оптимальный
-					баланс влаги, насыщает органы полезными веществами, минералами и витаминами, восстанавливает силы после
-					физических
-					упражнений.&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect2_2.png" alt&gt;
-			&lt;/div&gt;
-			&lt;div class="sect2__item chin"&gt;
-				&lt;p class="sect2__triger"&gt;&lt;span data-translate="44"&gt;L-карнитин&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__text"&gt;&lt;span data-translate="45"&gt;Воздействует на подкожную и висцеральную жировую прослойку организма. L-карнитин
-					расщепляет жиры и безопасно выводит
-					продукты распада из организма Недостаток как раз этого компонента зачастую служит причиной избыточной массы и
-					ожирения.&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect2_3.png" alt&gt;
-			&lt;/div&gt;
-			&lt;div class="sect2__item chin"&gt;
-				&lt;p class="sect2__triger"&gt;&lt;span data-translate="46"&gt;Экстракт зеленого чая&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__text"&gt;&lt;span data-translate="47"&gt;Мощный природный жиросжигатель, стимулирует местный метаболизм и расщепляет подкожный
-					жир, способствует похудению.&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect2_4.png" alt&gt;
-			&lt;/div&gt;
-			&lt;a href="#offer" class="btn"&gt;&lt;span data-translate="48"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/a&gt;
-		&lt;/div&gt;
-		&lt;img src="img/sect2_bt.svg" alt style="margin-bottom: -0.2rem;"&gt;
-	&lt;/section&gt;
-	&lt;section class="sect3"&gt;
-		&lt;div class="content"&gt;
-			&lt;h2 class="yrl "&gt;&lt;span data-translate="49"&gt;Причины купить Fortunella сейчас&lt;/span&gt;&lt;/h2&gt;
-			&lt;br&gt;
-			&lt;br&gt;
-			&lt;br&gt;
-			&lt;div class="sect3__main"&gt;
-				&lt;div class="sect3__item chin"&gt;
-					&lt;img src="img/sect3_1.png" alt&gt;
-					&lt;div class="sect3__box"&gt;
-						&lt;p class="sect3__text"&gt;&lt;span data-translate="50"&gt;Вы станете красивыми, здоровыми и энергичными&lt;/span&gt;&lt;/p&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-				&lt;div class="sect3__item chin"&gt;
-					&lt;img src="img/sect3_2.png" alt&gt;
-					&lt;div class="sect3__box"&gt;
-						&lt;p class="sect3__text"&gt;&lt;span data-translate="51"&gt;Люди будут делать вам комплименты
-						&lt;/span&gt;&lt;/p&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-				&lt;div class="sect3__item chin"&gt;
-					&lt;img src="img/sect3_3.png" alt&gt;
-					&lt;div class="sect3__box"&gt;
-						&lt;p class="sect3__text"&gt;&lt;span data-translate="52"&gt;Вы начнете гордиться своим телом&lt;/span&gt;&lt;/p&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-				&lt;div class="sect3__item chin"&gt;
-					&lt;img src="img/sect3_4.png" alt&gt;
-					&lt;div class="sect3__box"&gt;
-						&lt;p class="sect3__text"&gt;&lt;span data-translate="53"&gt;Сможете носить ту одежду, которая вам нравится, а не ту, которая лучше скрывает
-							недостатки вашей фигуры&lt;/span&gt;&lt;/p&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-				&lt;div class="sect3__item chin"&gt;
-					&lt;img src="img/sect3_5.png" alt&gt;
-					&lt;div class="sect3__box"&gt;
-						&lt;p class="sect3__t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext"&gt;&lt;span data-translate="54"&gt;Ваша жизнь полностью изменится, станет интересной и насыщенной&lt;/span&gt;&lt;/p&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/div&gt;
-		&lt;/div&gt;
-	&lt;/section&gt;
-	&lt;section class="sect4"&gt;
-		&lt;img src="img/sect4.png" alt&gt;
-		&lt;div class="content"&gt;
-			&lt;h2 class="black"&gt;&lt;span data-translate="55"&gt;Как капли Fortunella действует на организм?&lt;/span&gt;&lt;/h2&gt;
-			&lt;br&gt;
-			&lt;br&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_1.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="56"&gt;Снижает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="57"&gt;аппетит (человеку реже хочется есть, а для насыщения требуется меньший объем еды, чем раньше)
-				&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_2.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="58"&gt;Ускоряет&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="59"&gt;метаболизм и, как результат, быстро сжигает жир&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_3.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="60"&gt;Восстанавливает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="61"&gt;и ускоряет обменные процессы организма (липидный, белковый, углеводный)&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_4.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="62"&gt;Придает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="63"&gt;тонус мышцам тела&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_5.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="64"&gt;Укрепляет&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="65"&gt;общий иммунитет&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_6.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="66"&gt;Улучшает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="67"&gt;кожу, волосы и ногти (это неизбежный эффект при нормализации обменных процессов)&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_7.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="68"&gt;Выводит&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="69"&gt;из кишечника шлаки и токсины&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;div class="sect4__item"&gt;
-				&lt;img src="img/sect4_8.svg" alt&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="70"&gt;Убирает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="71"&gt;целлюлит и растяжки, оставшиеся после похудения (в отличие от жестких диет, после которых
-					человек сталкивается с
-					проблемой растяжек и обвисшей кожи)&lt;/span&gt;&lt;/p&gt;
-			&lt;/div&gt;
-			&lt;img class="no-pad" src="img/sect4_bott.png" alt&gt;
-			&lt;a href="#offer" class="btn"&gt;&lt;span data-translate="72"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/a&gt;
-		&lt;/div&gt;
-		&lt;img src="img/sect4__0.png" alt&gt;
-	&lt;/section&gt;
-	&lt;section class="sect5"&gt;
-		&lt;img src="img/sect5.png" class="absol" alt&gt;
-		&lt;div class="content"&gt;
-			&lt;h2 class="black"&gt;&lt;span data-translate="73"&gt;Разработчик
-				о препарате Fortunella&lt;/span&gt;&lt;/h2&gt;
-			&lt;br&gt;
-			&lt;p&gt;&lt;b&gt;&lt;span data-translate="74"&gt;Fortunella&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="75"&gt;- растительные капли для похудения. Они подходят всем кто следит за здоровьем и хочет
-				привести свою фигуру в
-				порядок. &lt;/span&gt;&lt;br&gt; &lt;br&gt;&lt;span data-translate="76"&gt;Сбалансированный состав “жиросжигателей”, витаминов и микроэлементов держит аппетит под контролем - вы меньше
-				думаете о
-			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	еде и реже срываетесь на перекусы. Плоды фортунеллы отвечают за расщеплениу жиров и преобразование их в энергию.
-				А
-				экстракт зеленого чая предотвращает его повторное накопление. Вы не почувствуете упадка сил во время похудения,
-				вас
-				будут питать энергией собственные жировые запасы.
-				&lt;/span&gt;&lt;br&gt; &lt;br&gt;&lt;span data-translate="77"&gt;Мы гордимся &lt;/span&gt;&lt;b&gt;&lt;span data-translate="78"&gt;уникальной формулой&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="79"&gt;Fortunella, это результат кропотливых исследований и долгих лет
-				разработки.
-			&lt;/span&gt;&lt;/p&gt;
-			&lt;img class="no-pad" src="img/sect5_bot.png" alt&gt;
-		&lt;/div&gt;
-	&lt;/section&gt;
-	&lt;section class="sect6"&gt;
-		&lt;div class="sect6__content"&gt;
-			&lt;h2 class="black"&gt;&lt;span data-translate="80"&gt;Как принимать капли Fortunella?&lt;/span&gt;&lt;/h2&gt;
-			&lt;div class="sect6__item"&gt;
-				&lt;p&gt;&lt;span data-translate="81"&gt;Капли &lt;/span&gt;&lt;b&gt;&lt;span data-translate="82"&gt;разводят&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="83"&gt;в воде или соке.&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect6_1.png" style="width: 1.59rem;" alt&gt;
-			&lt;/div&gt;
-			&lt;div class="sect6__item"&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="84"&gt;Ежедневно принимают&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="85"&gt;по 15 капель 6 раз в день (добавляем в каждое питье)&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect6_2.png" style="width: 1.53rem;" alt&gt;
-			&lt;/div&gt;
-			&lt;div class="sect6__item"&gt;
-				&lt;p&gt;&lt;span data-translate="86"&gt;Для достижения максимального результата необходимо неукоснительно &lt;/span&gt;&lt;b&gt;&lt;span data-translate="87"&gt;следовать инструкции&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="88"&gt;по применению,
-					&lt;/span&gt;&lt;b&gt;&lt;span data-translate="89"&gt;не пропуская&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="90"&gt;ни
-					одного приема.&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect6_3.png" style="width: 1.51rem;" alt&gt;
-			&lt;/div&gt;
-			&lt;div class="sect6__item"&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="91"&gt;Не следует&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="92"&gt;увеличивать дозировку, так как это не ускорит процесс похудения.&lt;/span&gt;&lt;/p&gt;
-				&lt;img src="img/sect6_4.png" style="width: 1.53rem;" alt&gt;
-			&lt;/div&gt;
-		&lt;/div&gt;
-		&lt;img style="margin-bottom: -0.8rem;" src="img/sect7.png" alt&gt;
-	&lt;/section&gt;
-	&lt;section class="sect7"&gt;
-		&lt;h2 class="yrl"&gt;&lt;span data-translate="93"&gt;Отзывы &lt;/span&gt;&lt;br&gt;&lt;span data-translate="94"&gt;покупателей&lt;/span&gt;&lt;/h2&gt;
-		&lt;div class="reviews owl-carousel"&gt;
-			&lt;div class="reviews__item"&gt;
-				&lt;div class="reviews__top"&gt;
-					&lt;img src="img/ava1.png" alt class="ava"&gt;
-					&lt;p class="name"&gt;&lt;b&gt;&lt;span data-translate="95"&gt;Татьяна&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="96"&gt;35 лет&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-				&lt;/div&gt;
-				&lt;p class="reviews__comm"&gt;&lt;span data-translate="97"&gt;Хочу оставить свой комментарий. Я в общем думала что это все вранье. Т.к отношусь к
-					покупкам в интернете каких то
-					средств для похудения с сомнениям. Но мне муж предложил попробовать попробовать Fortunella. Цена отличная +
-					быстрая
-					доставка. Ну в общем я заказала капли Fortunella с этого сайта и что вы думаете? Через неделю приема мои
-					килограммы
-					начали меня покидать. Муж был безумно рад тому что он мне их посоветовал и говорит что я делала бы без него.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Ну и
-					правда))). Отличные капли девчонки без преувеличения. Я безумно довольна что у меня все получилось.&lt;/span&gt;&lt;/p&gt;
-				&lt;div class="reviews__like"&gt;&lt;img src="img/Li1.svg" alt&gt;&lt;/div&gt;
-			&lt;/div&gt;
-			&lt;div class="reviews__item"&gt;
-				&lt;div class="reviews__top"&gt;
-					&lt;img src="img/ava2.png" alt class="ava"&gt;
-					&lt;p class="name"&gt;&lt;b&gt;&lt;span data-translate="98"&gt;Анна&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="99"&gt;25 лет&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-				&lt;/div&gt;
-				&lt;p class="reviews__comm"&gt;&lt;span data-translate="100"&gt;Как-то незаметно для себя я за последнии 4 месяца немного поправилась, на 6 кг. С одной
-					стороны это выглядит не так
-					страшно, а с другой вся одежда трещит по швам,а обновлять гардероб мне не хочется, поэтому решила худеть. Я
-					долго читала
-					отзывы и выбрала капли Fortunella. Где-то спустя три-четыре дня приема я почувствовала, что у меня появилось
-					больше
-					энергии и пропала тяга к перекусам, самочувствие было прекрасным. Через месяц я похудела на 10 кг, в такой
-					идеальной
-					форме я еще никогда не была!&lt;/span&gt;&lt;/p&gt;
-				&lt;div class="reviews__like"&gt;&lt;img src="img/Li2.svg" alt&gt;&lt;/div&gt;
-			&lt;/div&gt;
-			&lt;div class="reviews__item"&gt;
-				&lt;div class="reviews__top"&gt;
-					&lt;img src="img/ava3.png" alt class="ava"&gt;
-					&lt;p class="name"&gt;&lt;b&gt;&lt;span data-translate="101"&gt;Ангелина&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="102"&gt;47 лет&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-				&lt;/div&gt;
-				&lt;p class="reviews__comm"&gt;&lt;span data-translate="103"&gt;Капли Fortunella с первых дней снижают аппетит. Сейчас мне достаточно двух приемов пищи
-					в день. Вечером вообще есть не
-					тянет, нет угнетенного состояния как на обычных диетах. И одежда становится велика. Отличное средство!
-					Рекомендую!.&lt;/span&gt;&lt;/p&gt;
-				&lt;div class="reviews__like"&gt;&lt;img src="img/Li3.svg" alt&gt;&lt;/div&gt;
-			&lt;/div&gt;
-		&lt;/div&gt;
-	&lt;/section&gt;
-	&lt;section class="sect8"&gt;&lt;img src="img/sect7_bot.svg" alt&gt;
-	&lt;div class="content"&gt;
-		&lt;h2 class="black"&gt;&lt;span data-translate="104"&gt;Как сделать заказ?&lt;/span&gt;&lt;/h2&gt;
-		&lt;div class="sect8__item"&gt;
-			&lt;img src="img/sect8_1.png" alt style="width: 1.7rem;"&gt;
-			&lt;p&gt;&lt;b&gt;&lt;span data-translate="105"&gt;Заявка&lt;/span&gt;&lt;/b&gt;	&lt;span&gt;&lt;span data-translate="106"&gt;Вы оставляете заявку на нашем сайте.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-		&lt;div class="sect8__item"&gt;
-			&lt;img src="img/sect8_2.png" alt style="width: 1.98rem;"&gt;
-			&lt;p&gt;&lt;b&gt;&lt;span data-translate="107"&gt;Звонок&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="108"&gt;Наш менеджер свяжется с Вами для оформления заказа.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-		&lt;div class="sect8__item"&gt;
-			&lt;img src="img/sect8_3.png" alt style="width: 1.79rem;"&gt;
-				&lt;p&gt;&lt;b&gt;&lt;span data-translate="109"&gt;Доставка&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="110"&gt;Доставляем заказ курьером в течении 3-7 дней.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-		&lt;div class="sect8__item"&gt;
-			&lt;img src="img/sect8_4.png" alt style="width: 1.74rem;"&gt;
-		&lt;p&gt;&lt;b&gt;&lt;span data-translate="111"&gt;Оплата&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="112"&gt;Вы оплачиваете заказ по факту получения.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-	&lt;/div&gt;&lt;/section&gt;
-	&lt;br&gt;
-	&lt;footer class="intro"&gt;&lt;div class="intro__top"&gt;
-		&lt;div cl</t>
+     &lt;img src="img/sect2_1.png" alt&gt;
+    &lt;/div&gt;
+    &lt;div class="sect2__item chin"&gt;
+     &lt;p class="sect2__triger"&gt;&lt;span data-translate="42"&gt;Экстракт гуараны&lt;/span&gt;&lt;/p&gt;
+     &lt;p class="sect2__text"&gt;&lt;span data-translate="43"&gt;Активирует обмен веществ, значительно усиливая скорость расщепления жиров в организме.
+      Положительно воздействует на
+      состояние кожных покровов, выводит из них шлаки и токсины. Приводит в норму гормональный фон, поддерживает
+      оптимальный
+      баланс влаги, насыщает органы полезными веществами, минералами и витаминами, восстанавливает силы после
+      физических
+      упражнений.&lt;/span&gt;&lt;/p&gt;
+     &lt;img src="img/sect2_2.png" alt&gt;
+    &lt;/div&gt;
+    &lt;div class="sect2__item chin"&gt;
+     &lt;p class="sect2__triger"&gt;&lt;span data-translate="44"&gt;L-карнитин&lt;/span&gt;&lt;/p&gt;
+     &lt;p class="sect2__text"&gt;&lt;span data-translate="45"&gt;Воздействует на подкожную и висцеральную жировую прослойку организма. L-карнитин
+      расщепляет жиры и безопасно выводит
+      продукты распада из организма Недостаток как раз этого компонента зачастую служит причиной избыточной массы и
+      ожирения.&lt;/span&gt;&lt;/p&gt;
+     &lt;img src="img/sect2_3.png" alt&gt;
+    &lt;/div&gt;
+    &lt;div class="sect2__item chin"&gt;
+     &lt;p class="sect2__triger"&gt;&lt;span data-translate="46"&gt;Экстракт зеленого чая&lt;/span&gt;&lt;/p&gt;
+     &lt;p class="sect2__text"&gt;&lt;span data-translate="47"&gt;Мощный природный жиросжигатель, стимулирует местный метаболизм и расщепляет подкожный
+      жир, способствует похудению.&lt;/span&gt;&lt;/p&gt;
+     &lt;img src="img/sect2_4.png" alt&gt;
+    &lt;/div&gt;
+    &lt;a href="#offer" class="btn"&gt;&lt;span data-translate="48"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/a&gt;
+   &lt;/div&gt;
+   &lt;img src="img/sect2_bt.svg" alt style="margin-bottom: -0.2rem;"&gt;
+  &lt;/section&gt;
+  &lt;section class="sect3"&gt;
+   &lt;div class="content"&gt;
+    &lt;h2 class="yrl "&gt;&lt;span data-translate="49"&gt;Причины купить Fortunella сейчас&lt;/span&gt;&lt;/h2&gt;
+    &lt;br&gt;
+    &lt;br&gt;
+    &lt;br&gt;
+    &lt;div class="sect3__main"&gt;
+     &lt;div class="sect3__item chin"&gt;
+      &lt;img src="img/sect3_1.png" alt&gt;
+      &lt;div class="sect3__box"&gt;
+       &lt;p class="sect3__text"&gt;&lt;span data-translate="50"&gt;Вы станете красивыми, здоровыми и энергичными&lt;/span&gt;&lt;/p&gt;
+      &lt;/div&gt;
+     &lt;/div&gt;
+     &lt;div class="sect3__item chin"&gt;
+      &lt;img src="img/sect3_2.png" alt&gt;
+      &lt;div class="sect3__box"&gt;
+       &lt;p class="sect3__text"&gt;&lt;span data-translate="51"&gt;Люди будут делать вам комплименты
+       &lt;/span&gt;&lt;/p&gt;
+      &lt;/div&gt;
+     &lt;/div&gt;
+     &lt;div class="sect3__item chin"&gt;
+      &lt;img src="img/sect3_3.png" alt&gt;
+      &lt;div class="sect3__box"&gt;
+       &lt;p class="sect3__text"&gt;&lt;span data-translate="52"&gt;Вы начнете гордиться своим телом&lt;/span&gt;&lt;/p&gt;
+      &lt;/div&gt;
+     &lt;/div&gt;
+     &lt;div class="sect3__item chin"&gt;
+      &lt;img src="img/sect3_4.png" alt&gt;
+      &lt;div class="sect3__box"&gt;
+       &lt;p class="sect3__text"&gt;&lt;span data-translate="53"&gt;Сможете носить ту одежду, которая вам нравится, а не ту, которая лучше скрывает
+        недостатки вашей фигуры&lt;/span&gt;&lt;/p&gt;
+      &lt;/div&gt;
+     &lt;/div&gt;
+     &lt;div class="sect3__item chin"&gt;
+      &lt;img src="img/sect3_5.png" alt&gt;
+      &lt;div class="sect3__box"&gt;
+       &lt;p class="sect3__t</t>
+  </si>
+  <si>
+    <t>ext"&gt;&lt;span data-translate="54"&gt;Ваша жизнь полностью изменится, станет интересной и насыщенной&lt;/span&gt;&lt;/p&gt;
+      &lt;/div&gt;
+     &lt;/div&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/section&gt;
+  &lt;section class="sect4"&gt;
+   &lt;img src="img/sect4.png" alt&gt;
+   &lt;div class="content"&gt;
+    &lt;h2 class="black"&gt;&lt;span data-translate="55"&gt;Как капли Fortunella действует на организм?&lt;/span&gt;&lt;/h2&gt;
+    &lt;br&gt;
+    &lt;br&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_1.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="56"&gt;Снижает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="57"&gt;аппетит (человеку реже хочется есть, а для насыщения требуется меньший объем еды, чем раньше)
+     &lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_2.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="58"&gt;Ускоряет&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="59"&gt;метаболизм и, как результат, быстро сжигает жир&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_3.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="60"&gt;Восстанавливает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="61"&gt;и ускоряет обменные процессы организма (липидный, белковый, углеводный)&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_4.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="62"&gt;Придает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="63"&gt;тонус мышцам тела&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_5.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="64"&gt;Укрепляет&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="65"&gt;общий иммунитет&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_6.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="66"&gt;Улучшает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="67"&gt;кожу, волосы и ногти (это неизбежный эффект при нормализации обменных процессов)&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_7.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="68"&gt;Выводит&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="69"&gt;из кишечника шлаки и токсины&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;div class="sect4__item"&gt;
+     &lt;img src="img/sect4_8.svg" alt&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="70"&gt;Убирает&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="71"&gt;целлюлит и растяжки, оставшиеся после похудения (в отличие от жестких диет, после которых
+      человек сталкивается с
+      проблемой растяжек и обвисшей кожи)&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;img class="no-pad" src="img/sect4_bott.png" alt&gt;
+    &lt;a href="#offer" class="btn"&gt;&lt;span data-translate="72"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/a&gt;
+   &lt;/div&gt;
+   &lt;img src="img/sect4__0.png" alt&gt;
+  &lt;/section&gt;
+  &lt;section class="sect5"&gt;
+   &lt;img src="img/sect5.png" class="absol" alt&gt;
+   &lt;div class="content"&gt;
+    &lt;h2 class="black"&gt;&lt;span data-translate="73"&gt;Разработчик
+     о препарате Fortunella&lt;/span&gt;&lt;/h2&gt;
+    &lt;br&gt;
+    &lt;p&gt;&lt;b&gt;&lt;span data-translate="74"&gt;Fortunella&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="75"&gt;- растительные капли для похудения. Они подходят всем кто следит за здоровьем и хочет
+     привести свою фигуру в
+     порядок. &lt;/span&gt;&lt;br&gt; &lt;br&gt;&lt;span data-translate="76"&gt;Сбалансированный состав “жиросжигателей”, витаминов и микроэлементов держит аппетит под контролем - вы меньше
+     думаете о</t>
+  </si>
+  <si>
+    <t>еде и реже срываетесь на перекусы. Плоды фортунеллы отвечают за расщеплениу жиров и преобразование их в энергию.
+     А
+     экстракт зеленого чая предотвращает его повторное накопление. Вы не почувствуете упадка сил во время похудения,
+     вас
+     будут питать энергией собственные жировые запасы.
+     &lt;/span&gt;&lt;br&gt; &lt;br&gt;&lt;span data-translate="77"&gt;Мы гордимся &lt;/span&gt;&lt;b&gt;&lt;span data-translate="78"&gt;уникальной формулой&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="79"&gt;Fortunella, это результат кропотливых исследований и долгих лет
+     разработки.
+    &lt;/span&gt;&lt;/p&gt;
+    &lt;img class="no-pad" src="img/sect5_bot.png" alt&gt;
+   &lt;/div&gt;
+  &lt;/section&gt;
+  &lt;section class="sect6"&gt;
+   &lt;div class="sect6__content"&gt;
+    &lt;h2 class="black"&gt;&lt;span data-translate="80"&gt;Как принимать капли Fortunella?&lt;/span&gt;&lt;/h2&gt;
+    &lt;div class="sect6__item"&gt;
+     &lt;p&gt;&lt;span data-translate="81"&gt;Капли &lt;/span&gt;&lt;b&gt;&lt;span data-translate="82"&gt;разводят&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="83"&gt;в воде или соке.&lt;/span&gt;&lt;/p&gt;
+     &lt;img src="img/sect6_1.png" style="width: 1.59rem;" alt&gt;
+    &lt;/div&gt;
+    &lt;div class="sect6__item"&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="84"&gt;Ежедневно принимают&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="85"&gt;по 15 капель 6 раз в день (добавляем в каждое питье)&lt;/span&gt;&lt;/p&gt;
+     &lt;img src="img/sect6_2.png" style="width: 1.53rem;" alt&gt;
+    &lt;/div&gt;
+    &lt;div class="sect6__item"&gt;
+     &lt;p&gt;&lt;span data-translate="86"&gt;Для достижения максимального результата необходимо неукоснительно &lt;/span&gt;&lt;b&gt;&lt;span data-translate="87"&gt;следовать инструкции&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="88"&gt;по применению,
+      &lt;/span&gt;&lt;b&gt;&lt;span data-translate="89"&gt;не пропуская&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="90"&gt;ни
+      одного приема.&lt;/span&gt;&lt;/p&gt;
+     &lt;img src="img/sect6_3.png" style="width: 1.51rem;" alt&gt;
+    &lt;/div&gt;
+    &lt;div class="sect6__item"&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="91"&gt;Не следует&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="92"&gt;увеличивать дозировку, так как это не ускорит процесс похудения.&lt;/span&gt;&lt;/p&gt;
+     &lt;img src="img/sect6_4.png" style="width: 1.53rem;" alt&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+   &lt;img style="margin-bottom: -0.8rem;" src="img/sect7.png" alt&gt;
+  &lt;/section&gt;
+  &lt;section class="sect7"&gt;
+   &lt;h2 class="yrl"&gt;&lt;span data-translate="93"&gt;Отзывы &lt;/span&gt;&lt;br&gt;&lt;span data-translate="94"&gt;покупателей&lt;/span&gt;&lt;/h2&gt;
+   &lt;div class="reviews owl-carousel"&gt;
+    &lt;div class="reviews__item"&gt;
+     &lt;div class="reviews__top"&gt;
+      &lt;img src="img/ava1.png" alt class="ava"&gt;
+      &lt;p class="name"&gt;&lt;b&gt;&lt;span data-translate="95"&gt;Татьяна&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="96"&gt;35 лет&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+     &lt;/div&gt;
+     &lt;p class="reviews__comm"&gt;&lt;span data-translate="97"&gt;Хочу оставить свой комментарий. Я в общем думала что это все вранье. Т.к отношусь к
+      покупкам в интернете каких то
+      средств для похудения с сомнениям. Но мне муж предложил попробовать попробовать Fortunella. Цена отличная +
+      быстрая
+      доставка. Ну в общем я заказала капли Fortunella с этого сайта и что вы думаете? Через неделю приема мои
+      килограммы
+      начали меня покидать. Муж был безумно рад тому что он мне их посоветовал и говорит что я делала бы без него.</t>
+  </si>
+  <si>
+    <t>Ну и
+      правда))). Отличные капли девчонки без преувеличения. Я безумно довольна что у меня все получилось.&lt;/span&gt;&lt;/p&gt;
+     &lt;div class="reviews__like"&gt;&lt;img src="img/Li1.svg" alt&gt;&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="reviews__item"&gt;
+     &lt;div class="reviews__top"&gt;
+      &lt;img src="img/ava2.png" alt class="ava"&gt;
+      &lt;p class="name"&gt;&lt;b&gt;&lt;span data-translate="98"&gt;Анна&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="99"&gt;25 лет&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+     &lt;/div&gt;
+     &lt;p class="reviews__comm"&gt;&lt;span data-translate="100"&gt;Как-то незаметно для себя я за последнии 4 месяца немного поправилась, на 6 кг. С одной
+      стороны это выглядит не так
+      страшно, а с другой вся одежда трещит по швам,а обновлять гардероб мне не хочется, поэтому решила худеть. Я
+      долго читала
+      отзывы и выбрала капли Fortunella. Где-то спустя три-четыре дня приема я почувствовала, что у меня появилось
+      больше
+      энергии и пропала тяга к перекусам, самочувствие было прекрасным. Через месяц я похудела на 10 кг, в такой
+      идеальной
+      форме я еще никогда не была!&lt;/span&gt;&lt;/p&gt;
+     &lt;div class="reviews__like"&gt;&lt;img src="img/Li2.svg" alt&gt;&lt;/div&gt;
+    &lt;/div&gt;
+    &lt;div class="reviews__item"&gt;
+     &lt;div class="reviews__top"&gt;
+      &lt;img src="img/ava3.png" alt class="ava"&gt;
+      &lt;p class="name"&gt;&lt;b&gt;&lt;span data-translate="101"&gt;Ангелина&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="102"&gt;47 лет&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+     &lt;/div&gt;
+     &lt;p class="reviews__comm"&gt;&lt;span data-translate="103"&gt;Капли Fortunella с первых дней снижают аппетит. Сейчас мне достаточно двух приемов пищи
+      в день. Вечером вообще есть не
+      тянет, нет угнетенного состояния как на обычных диетах. И одежда становится велика. Отличное средство!
+      Рекомендую!.&lt;/span&gt;&lt;/p&gt;
+     &lt;div class="reviews__like"&gt;&lt;img src="img/Li3.svg" alt&gt;&lt;/div&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/section&gt;
+  &lt;section class="sect8"&gt;&lt;img src="img/sect7_bot.svg" alt&gt;
+  &lt;div class="content"&gt;
+   &lt;h2 class="black"&gt;&lt;span data-translate="104"&gt;Как сделать заказ?&lt;/span&gt;&lt;/h2&gt;
+   &lt;div class="sect8__item"&gt;
+    &lt;img src="img/sect8_1.png" alt style="width: 1.7rem;"&gt;
+    &lt;p&gt;&lt;b&gt;&lt;span data-translate="105"&gt;Заявка&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="106"&gt;Вы оставляете заявку на нашем сайте.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="sect8__item"&gt;
+    &lt;img src="img/sect8_2.png" alt style="width: 1.98rem;"&gt;
+    &lt;p&gt;&lt;b&gt;&lt;span data-translate="107"&gt;Звонок&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="108"&gt;Наш менеджер свяжется с Вами для оформления заказа.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="sect8__item"&gt;
+    &lt;img src="img/sect8_3.png" alt style="width: 1.79rem;"&gt;
+     &lt;p&gt;&lt;b&gt;&lt;span data-translate="109"&gt;Доставка&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="110"&gt;Доставляем заказ курьером в течении 3-7 дней.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="sect8__item"&gt;
+    &lt;img src="img/sect8_4.png" alt style="width: 1.74rem;"&gt;
+   &lt;p&gt;&lt;b&gt;&lt;span data-translate="111"&gt;Оплата&lt;/span&gt;&lt;/b&gt; &lt;span&gt;&lt;span data-translate="112"&gt;Вы оплачиваете заказ по факту получения.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;&lt;/section&gt;
+  &lt;br&gt;
+  &lt;footer class="intro"&gt;&lt;div class="intro__top"&gt;
+   &lt;div cl</t>
   </si>
   <si>
     <t>ass="intro__triger"&gt;&lt;b&gt;&lt;span data-translate="113"&gt;100%&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="114"&gt;ЭФФЕКТ&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
-		&lt;h2 class="intro__title big black"&gt;&lt;span data-translate="115"&gt;Капли &lt;/span&gt;&lt;br&gt;&lt;span data-translate="116"&gt;Fortunella&lt;/span&gt;&lt;/h2&gt;
-		&lt;p class="intro__subtitle"&gt;&lt;span data-translate="117"&gt;для быстрого
-			и эффективного похудения&lt;/span&gt;&lt;/p&gt;
-		&lt;p class="intro__triger2"&gt;&lt;span data-translate="118"&gt;ДО 5 КИЛОГРАММ В НЕДЕЛЮ&lt;/span&gt;&lt;/p&gt;
-		&lt;div class="intro__descont"&gt;&lt;img src="img/intro_img.png" alt&gt;
-			&lt;p&gt;&lt;span data-translate="119"&gt;СКИДКА
-				&lt;/span&gt;&lt;b&gt;&lt;span data-translate="120"&gt;50%&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
-		&lt;/div&gt;
-	&lt;/div&gt;
-	&lt;div class="intro__grid"&gt;
-		&lt;div class="intro__item"&gt;
-			&lt;img src="img/intro_li_1.svg" alt&gt;
-			&lt;p&gt;&lt;span data-translate="121"&gt;Контролирует аппетит&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-		&lt;div class="intro__item"&gt;
-			&lt;img src="img/intro_li_2.svg" alt&gt;
-			&lt;p&gt;&lt;span data-translate="122"&gt;Ускоряют метаболизм&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-		&lt;div class="intro__item"&gt;
-			&lt;img src="img/intro_li_3.svg" alt&gt;
-			&lt;p&gt;&lt;span data-translate="123"&gt;Расщепляют жировые отложения&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-		&lt;div class="intro__item"&gt;
-			&lt;img src="img/intro_li_4.svg" alt&gt;
-			&lt;p&gt;&lt;span data-translate="124"&gt;Тонизируют и заряжают энергией&lt;/span&gt;&lt;/p&gt;
-		&lt;/div&gt;
-	&lt;/div&gt;
-	&lt;div class="pricle"&gt;
-		&lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="125"&gt;Старая цена&lt;/span&gt;&lt;/span&gt;&lt;s&gt;&lt;span data-translate="126"&gt;€ 78&lt;/span&gt;&lt;/s&gt; &lt;/div&gt;
-		&lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="127"&gt;Новая цена&lt;/span&gt;&lt;/span&gt;&lt;b&gt;&lt;span data-translate="128"&gt;€ 39&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
-	&lt;/div&gt;
-	&lt;div class="chin timer "&gt;
-		&lt;div class="timer__title"&gt;&lt;span data-translate="129"&gt;До конца акции осталось:&lt;/span&gt;&lt;/div&gt;
-		&lt;div class="timer__wrapper"&gt;
-			&lt;div class="t-hour"&gt;&lt;/div&gt;&lt;span data-translate="130"&gt;: &lt;/span&gt;&lt;div class="t-min"&gt;&lt;/div&gt;&lt;span data-translate="131"&gt;: &lt;/span&gt;&lt;div class="t-sec"&gt;&lt;/div&gt;
-		&lt;/div&gt;
-		&lt;div class="timer__desc"&gt;
-			&lt;span&gt;&lt;span data-translate="132"&gt;Часов&lt;/span&gt;&lt;/span&gt;
-			&lt;span&gt;&lt;span data-translate="133"&gt;Минут&lt;/span&gt;&lt;/span&gt;
-			&lt;span&gt;&lt;span data-translate="134"&gt;Секунд&lt;/span&gt;&lt;/span&gt;
-		&lt;/div&gt;
-	&lt;/div&gt;
-	&lt;br&gt;
-	&lt;br&gt;&lt;form id="offer" method="POST" class="form"&gt;
-		&lt;div class="input-wrap"&gt;
-			&lt;img src="img/man.svg" alt&gt;
-			&lt;input type="text" name="name" required placeholder="Введите ваше имя" data-placeholder="142" data-placeholder-translate="Введите ваше имя"&gt;
-		&lt;/div&gt;
-		&lt;div class="input-wrap"&gt;
-			&lt;img src="img/phone.svg" alt&gt;
-			&lt;input type="text" name="phone" required placeholder="Введите ваш телефон" data-placeholder="143" data-placeholder-translate="Введите ваш телефон"&gt;
-		&lt;/div&gt;
-		&lt;button class="btn"&gt;
-			&lt;span&gt;&lt;span data-translate="135"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;
-	&lt;/form&gt;
-&lt;p class="intro__sale"&gt;
-	&lt;span&gt;&lt;span data-translate="136"&gt;По акции
-		осталось&lt;/span&gt;&lt;/span&gt;
-	&lt;span class="num"&gt;&lt;span data-translate="137"&gt;10 шт&lt;/span&gt;&lt;/span&gt;
-&lt;/p&gt;
-	&lt;/footer&gt;
-	&lt;div class="policy__bot"&gt;
-		&lt;div class="policy_wrap"&gt;
-			&lt;span&gt;&lt;span data-translate="138"&gt;GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Span&lt;/s</t>
+   &lt;h2 class="intro__title big black"&gt;&lt;span data-translate="115"&gt;Капли &lt;/span&gt;&lt;br&gt;&lt;span data-translate="116"&gt;Fortunella&lt;/span&gt;&lt;/h2&gt;
+   &lt;p class="intro__subtitle"&gt;&lt;span data-translate="117"&gt;для быстрого
+    и эффективного похудения&lt;/span&gt;&lt;/p&gt;
+   &lt;p class="intro__triger2"&gt;&lt;span data-translate="118"&gt;ДО 5 КИЛОГРАММ В НЕДЕЛЮ&lt;/span&gt;&lt;/p&gt;
+   &lt;div class="intro__descont"&gt;&lt;img src="img/intro_img.png" alt&gt;
+    &lt;p&gt;&lt;span data-translate="119"&gt;СКИДКА
+     &lt;/span&gt;&lt;b&gt;&lt;span data-translate="120"&gt;50%&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="intro__grid"&gt;
+   &lt;div class="intro__item"&gt;
+    &lt;img src="img/intro_li_1.svg" alt&gt;
+    &lt;p&gt;&lt;span data-translate="121"&gt;Контролирует аппетит&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="intro__item"&gt;
+    &lt;img src="img/intro_li_2.svg" alt&gt;
+    &lt;p&gt;&lt;span data-translate="122"&gt;Ускоряют метаболизм&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="intro__item"&gt;
+    &lt;img src="img/intro_li_3.svg" alt&gt;
+    &lt;p&gt;&lt;span data-translate="123"&gt;Расщепляют жировые отложения&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="intro__item"&gt;
+    &lt;img src="img/intro_li_4.svg" alt&gt;
+    &lt;p&gt;&lt;span data-translate="124"&gt;Тонизируют и заряжают энергией&lt;/span&gt;&lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="pricle"&gt;
+   &lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="125"&gt;Старая цена&lt;/span&gt;&lt;/span&gt;&lt;s&gt;&lt;span data-translate="126"&gt;€ 78&lt;/span&gt;&lt;/s&gt; &lt;/div&gt;
+   &lt;div class="pricle__item"&gt;&lt;span&gt;&lt;span data-translate="127"&gt;Новая цена&lt;/span&gt;&lt;/span&gt;&lt;b&gt;&lt;span data-translate="128"&gt;€ 39&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
+  &lt;/div&gt;
+  &lt;div class="chin timer "&gt;
+   &lt;div class="timer__title"&gt;&lt;span data-translate="129"&gt;До конца акции осталось:&lt;/span&gt;&lt;/div&gt;
+   &lt;div class="timer__wrapper"&gt;
+    &lt;div class="t-hour"&gt;&lt;/div&gt;&lt;span data-translate="130"&gt;: &lt;/span&gt;&lt;div class="t-min"&gt;&lt;/div&gt;&lt;span data-translate="131"&gt;: &lt;/span&gt;&lt;div class="t-sec"&gt;&lt;/div&gt;
+   &lt;/div&gt;
+   &lt;div class="timer__desc"&gt;
+    &lt;span&gt;&lt;span data-translate="132"&gt;Часов&lt;/span&gt;&lt;/span&gt;
+    &lt;span&gt;&lt;span data-translate="133"&gt;Минут&lt;/span&gt;&lt;/span&gt;
+    &lt;span&gt;&lt;span data-translate="134"&gt;Секунд&lt;/span&gt;&lt;/span&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;br&gt;
+  &lt;br&gt;&lt;form id="offer" method="POST" class="form"&gt;
+   &lt;div class="input-wrap"&gt;
+    &lt;img src="img/man.svg" alt&gt;
+    &lt;input type="text" name="name" required placeholder="Введите ваше имя" data-placeholder="142" data-placeholder-translate="Введите ваше имя"&gt;
+   &lt;/div&gt;
+   &lt;div class="input-wrap"&gt;
+    &lt;img src="img/phone.svg" alt&gt;
+    &lt;input type="text" name="phone" required placeholder="Введите ваш телефон" data-placeholder="143" data-placeholder-translate="Введите ваш телефон"&gt;
+   &lt;/div&gt;
+   &lt;button class="btn"&gt;
+    &lt;span&gt;&lt;span data-translate="135"&gt;ЗАКАЗАТЬ СО СКИДКОЙ&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;
+  &lt;/form&gt;
+ &lt;p class="intro__sale"&gt;
+  &lt;span&gt;&lt;span data-translate="136"&gt;По акции
+   осталось&lt;/span&gt;&lt;/span&gt;
+  &lt;span class="num"&gt;&lt;span data-translate="137"&gt;10 шт&lt;/span&gt;&lt;/span&gt;
+ &lt;/p&gt;
+  &lt;/footer&gt;
+  &lt;div class="policy__bot"&gt;
+   &lt;div class="policy_wrap"&gt;
+    &lt;span&gt;&lt;span data-translate="138"&gt;GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Span&lt;/s</t>
   </si>
   <si>
     <t>pan&gt;&lt;/span&gt;
-			&lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="139"&gt;Privacy policy&lt;/span&gt;&lt;/a&gt;
-			&lt;a href="/general-conditions-of-sale" target="_blank"&gt;&lt;span data-translate="140"&gt;General conditions of sale&lt;/span&gt;&lt;/a&gt;
-			&lt;a href="/legal-warning" target="_blank"&gt;&lt;span data-translate="141"&gt;Legal warning&lt;/span&gt;&lt;/a&gt;
-		&lt;/div&gt;
-	&lt;/div&gt;
-	&lt;script src="libs/carousel/owl.carousel.min.js"&gt;&lt;/script&gt;
-	&lt;script src="js/timer.js"&gt;&lt;/script&gt;
-	&lt;script src="js/common.js"&gt;&lt;/script&gt;
-&lt;/body&gt;&lt;/html&gt;</t>
+    &lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="139"&gt;Privacy policy&lt;/span&gt;&lt;/a&gt;
+    &lt;a href="/general-conditions-of-sale" target="_blank"&gt;&lt;span data-translate="140"&gt;General conditions of sale&lt;/span&gt;&lt;/a&gt;
+    &lt;a href="/legal-warning" target="_blank"&gt;&lt;span data-translate="141"&gt;Legal warning&lt;/span&gt;&lt;/a&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;script src="libs/carousel/owl.carousel.min.js"&gt;&lt;/script&gt;
+  &lt;script src="js/timer.js"&gt;&lt;/script&gt;
+  &lt;script src="js/common.js"&gt;&lt;/script&gt;
+ &lt;/body&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -830,6 +849,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -839,13 +863,27 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -874,7 +912,15 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5400,7 +5446,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5415,12 +5461,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5433,6 +5479,12 @@
       <c r="A8" s="10" t="s">
         <v>122</v>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
